--- a/4.项目提交制品/4.4软件测试/测试覆盖表/测试覆盖表_宋冰晨.xlsx
+++ b/4.项目提交制品/4.4软件测试/测试覆盖表/测试覆盖表_宋冰晨.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研一下\软件工程综合实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研一下\软件工程综合实验\20_H\4.项目提交制品\4.4软件测试\测试覆盖表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D01ECB-92DB-4D43-B271-FB203CAEB65A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D20CA-569C-4604-A4CF-FEDA734E55C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28995" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>测试名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v1.0？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部分用户界面测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示热门的前8个站点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 登录成功 2. 显示按浏览次数排序的前8个站点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 默认选中全部为模板类型，显示所有网站及其下模板个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 登录成功 2. 默认选中全部为模板类型，显示目前8个网站及其下模板个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在用户首页按关键字搜索爬取站点</t>
   </si>
   <si>
@@ -162,18 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示站点搜索框 3. 跳转至模板选择页面，无选中的模板类型，显示与关键词匹配的搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 用户登录 2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 3. 输入关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示站点搜索框 3. 无选中的模板类型，显示与关键词匹配的搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按类别列出爬取站点</t>
   </si>
   <si>
@@ -181,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示包括本地生活、电子商务等共8个类型 3. 显示对应的过滤结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 登录成功 2. 显示8个类型 3. 显示对应的过滤结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览同站点下所有模板</t>
   </si>
   <si>
@@ -204,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示同站点下所有可选的模板以及浏览次数和数据下载次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览模板详情</t>
   </si>
   <si>
@@ -219,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示模板介绍、采集字段预览、采集参数预览、示例数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建爬虫任务</t>
   </si>
   <si>
@@ -234,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 成功显示配置表单及参数对应的预览图片 3. 预览图片成功切换 4. 如果用户输入的信息验证失败，则创建任务失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则创建任务成功，页面右上侧弹出对应的创建任务成功信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询爬虫任务列表及各任务进度</t>
   </si>
   <si>
@@ -249,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示用户创建的任务列表及详细信息（包括进度、状态等）3. 显示进度数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑任务配置参数后重新运行任务</t>
   </si>
   <si>
@@ -264,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示之前用户配置的表单信息 3.如果用户输入的信息验证失败，则创建任务失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则重启任务成功，页面右上侧弹出对应的重启任务成功信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新运行任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2.显示用户创建的任务列表及详细信息（包括进度、状态等）3.弹出覆盖数据的警告框 4.成功重新运行任务，更新任务的详细信息（包括进度、状态等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量删除任务</t>
   </si>
   <si>
@@ -295,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示用户创建的任务列表及详细信息（包括进度、状态等）3.更新按钮更新为删除按钮 4.删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重命名任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2.显示用户创建的任务列表及详细信息（包括进度、状态等）3.在任务名称左侧显示重命名按钮 4.弹出重命名表单模态框 5. 如果用户输入的信息验证失败，则重命名失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则重命名任务成功，页面右上侧弹出重命名成功信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览最近编辑</t>
   </si>
   <si>
@@ -326,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2.显示按照编辑时间从新到旧的前5个用户任务 3.如果删除的任务在最近编辑中，正确更新最近编辑 4.如果创建任务成功，则创建的任务位于最近编辑中的第一个 5.如果重新运行任务成功，则重新运行的任务位于最近编辑中的第一个 6. 如果重命名的任务在最近编辑中，正确更新最近编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,11 +329,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 登录成功 2. 显示两种排序方式 3. 显示对应站点排序结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 登录成功 2. 显示热门和更新时间两种排序方式 3. 显示对应站点排序结果</t>
+    <t>1. 登录成功 
+2. 显示热门的前8个站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 默认选中全部为模板类型，显示所有网站及其下模板个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示按浏览次数排序的前8个站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 默认选中全部为模板类型，显示目前8个网站及其下模板个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示站点搜索框 
+3. 跳转至模板选择页面，无选中的模板类型，显示与关键词匹配的搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示站点搜索框 
+3. 无选中的模板类型，显示与关键词匹配的搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示8个类型 
+3. 显示对应的过滤结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示包括本地生活、电子商务等共8个类型 
+3. 显示对应的过滤结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示同站点下所有可选的模板以及浏览次数和数据下载次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示模板介绍、采集字段预览、采集参数预览、示例数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 成功显示配置表单及参数对应的预览图片 
+3. 预览图片成功切换 
+4. 如果用户输入的信息验证失败，则创建任务失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则创建任务成功，页面右上侧弹出对应的创建任务成功信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示用户创建的任务列表及详细信息（包括进度、状态等）3. 显示进度数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示用户创建的任务列表及详细信息（包括进度、状态等）
+3. 显示进度数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示之前用户配置的表单信息 
+3.如果用户输入的信息验证失败，则创建任务失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则重启任务成功，页面右上侧弹出对应的重启任务成功信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2.显示用户创建的任务列表及详细信息（包括进度、状态等）
+3.弹出覆盖数据的警告框 
+4.成功重新运行任务，更新任务的详细信息（包括进度、状态等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示用户创建的任务列表及详细信息（包括进度、状态等）
+3.更新按钮更新为删除按钮 
+4.删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2.显示用户创建的任务列表及详细信息（包括进度、状态等）
+3.在任务名称左侧显示重命名按钮 
+4.弹出重命名表单模态框 
+5. 如果用户输入的信息验证失败，则重命名失败，页面右上侧弹出对应的错误信息；如果用户输入的信息验证成功，则重命名任务成功，页面右上侧弹出重命名成功信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2.显示按照编辑时间从新到旧的前5个用户任务 
+3.如果删除的任务在最近编辑中，正确更新最近编辑 
+4.如果创建任务成功，则创建的任务位于最近编辑中的第一个 
+5.如果重新运行任务成功，则重新运行的任务位于最近编辑中的第一个 
+6. 如果重命名的任务在最近编辑中，正确更新最近编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示两种排序方式 
+3. 显示对应站点排序结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 登录成功 
+2. 显示热门和更新时间两种排序方式 
+3. 显示对应站点排序结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,38 +481,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -565,67 +584,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -908,73 +930,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="6">
         <v>43965</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -983,16 +1008,16 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1004,432 +1029,437 @@
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="C6" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="166.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>30</v>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="131.65" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
+      <c r="G8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="G9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="111" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
+      <c r="G10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="402.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>50</v>
+      <c r="G11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>54</v>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="346.9" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
+      <c r="G13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="360.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="263.64999999999998" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>62</v>
+      <c r="G14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="277.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="180.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
+      <c r="G15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="194.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="G16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>70</v>
+      <c r="A17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
+      <c r="B18" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="J19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:F3"/>
@@ -1446,11 +1476,6 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4.项目提交制品/4.4软件测试/测试覆盖表/测试覆盖表_宋冰晨.xlsx
+++ b/4.项目提交制品/4.4软件测试/测试覆盖表/测试覆盖表_宋冰晨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研一下\软件工程综合实验\20_H\4.项目提交制品\4.4软件测试\测试覆盖表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D20CA-569C-4604-A4CF-FEDA734E55C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7235F3E-8497-4D59-A1E2-82221E5AB2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28995" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分用户界面测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览热门站点</t>
   </si>
   <si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 点击首页进入首页或登录后自动跳转到首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 从侧边栏点击新建或从首页点击更多进入模板选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在用户首页按关键字搜索爬取站点</t>
   </si>
   <si>
@@ -138,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 打开首页 3. 输入关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 用户登录 2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 3. 输入关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按类别列出爬取站点</t>
   </si>
   <si>
@@ -160,14 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 3. 选中每个类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 用户登录 2. 从首页点击热门网站或从模板选择页面点击网站进入二级模板选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览模板详情</t>
   </si>
   <si>
@@ -175,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.从二级模板选择页面点击模板进入模板详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建爬虫任务</t>
   </si>
   <si>
@@ -186,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 从模板详情页面点击立即使用进入模板配置页面 3. 依次选中不同参数输入框 4. 输入表单信息点击保存并启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询爬虫任务列表及各任务进度</t>
   </si>
   <si>
@@ -197,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2. 点击侧边栏中的我的任务 3. 鼠标悬停在进度条上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑任务配置参数后重新运行任务</t>
   </si>
   <si>
@@ -208,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.点击侧边栏中的最近编辑中的任务或在我的任务页面中点击更多操作中的编辑进入模板配置页面 3. 修改表单信息点击保存并启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新运行任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.点击侧边栏中的我的任务 3.对已终止或已完成的任务点击重新运行按钮 4.在警告框中点击确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量删除任务</t>
   </si>
   <si>
@@ -231,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.点击侧边栏中的我的任务 3.勾选多个任务 4.点击删除按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重命名任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.点击侧边栏中的我的任务 3.鼠标悬停在任务列表中的一个任务上 4.点击重命名按钮 5.输入新用户名点击确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览最近编辑</t>
   </si>
   <si>
@@ -254,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户登录 2.点击侧边栏中的最近编辑的下拉按钮 3.批量删除任务 4.创建任务 5.重新运行任务 6.重命名任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +262,6 @@
   </si>
   <si>
     <t>页面是否显示两种排序方式，且选中不同排序方式显示对应排序结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 用户登录 2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 3.依次选中不同排序方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,6 +387,102 @@
   </si>
   <si>
     <t>v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15个针对用户界面的功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 点击首页进入首页或登录后自动跳转到首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从侧边栏点击新建或从首页点击更多进入模板选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 打开首页 
+3. 输入关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 
+3. 输入关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 
+3. 选中每个类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从首页点击热门网站或从模板选择页面点击网站进入二级模板选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.从二级模板选择页面点击模板进入模板详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从模板详情页面点击立即使用进入模板配置页面 
+3. 依次选中不同参数输入框 4. 输入表单信息点击保存并启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 点击侧边栏中的我的任务 
+3. 鼠标悬停在进度条上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.点击侧边栏中的最近编辑中的任务或在我的任务页面中点击更多操作中的编辑进入模板配置页面 
+3. 修改表单信息点击保存并启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.点击侧边栏中的我的任务 
+3.对已终止或已完成的任务点击重新运行按钮 4.在警告框中点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.点击侧边栏中的我的任务 
+3.勾选多个任务 
+4.点击删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.点击侧边栏中的我的任务 
+3.鼠标悬停在任务列表中的一个任务上 
+4.点击重命名按钮 
+5.输入新用户名点击确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2.点击侧边栏中的最近编辑的下拉按钮 
+3.批量删除任务 
+4.创建任务 
+5.重新运行任务 
+6.重命名任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户登录 
+2. 从侧边栏点击新建或从首页点击更多进入模板选择页面 
+3.依次选中不同排序方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,18 +609,64 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,7 +676,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,43 +686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,76 +970,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L3"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="5"/>
+    <col min="1" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="21">
         <v>43965</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1008,16 +1048,16 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1029,437 +1069,432 @@
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="97.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="360.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="277.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="194.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="I19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="180.4" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="138.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" ht="124.9" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" ht="360.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="277.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="194.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" ht="152.65" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B3:F3"/>
@@ -1476,6 +1511,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
